--- a/tests/data/DOM-summary-20220817.xlsx
+++ b/tests/data/DOM-summary-20220817.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mphum\GitHub\PyCO2SYS\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE4E2B20-F979-439B-83F8-50B36F524650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D3C60E-0806-464B-B965-95F0F5B70394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{F91E5AE9-C8B8-486C-980F-70AB03551858}"/>
   </bookViews>
@@ -410,7 +410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385110C5-1798-4B90-806A-9214B186D8E1}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
